--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>car_rented_id</t>
+  </si>
+  <si>
+    <t>rented_car_index</t>
+  </si>
+  <si>
+    <t>rented_car_index_second</t>
   </si>
   <si>
     <t>time_rented</t>
@@ -414,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,89 +457,107 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>-1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>-1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,10 +566,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -422,9 +422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -557,22 +559,22 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -422,11 +422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,9 @@
     <t>payment</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>dkfl</t>
   </si>
   <si>
+    <t>Kamal123</t>
+  </si>
+  <si>
     <t>kamal123</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>sf</t>
   </si>
   <si>
+    <t>Girish123</t>
+  </si>
+  <si>
     <t>girish123</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
   </si>
   <si>
     <t>dfd</t>
+  </si>
+  <si>
+    <t>Abhi123</t>
   </si>
   <si>
     <t>abhi123</t>
@@ -420,13 +432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,22 +475,25 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -499,24 +514,27 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -537,24 +555,27 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -575,7 +596,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>abhi123</t>
+  </si>
+  <si>
+    <t>7023095311</t>
+  </si>
+  <si>
+    <t>kamal@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>kamal7643</t>
   </si>
 </sst>
 </file>
@@ -432,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,28 +590,69 @@
         <v>26</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -55,16 +55,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>kamal</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>djk</t>
-  </si>
-  <si>
-    <t>dkfl</t>
+    <t>Kamal Swami</t>
+  </si>
+  <si>
+    <t>7023095311</t>
+  </si>
+  <si>
+    <t>kswami848@gmail.com</t>
+  </si>
+  <si>
+    <t>*******</t>
   </si>
   <si>
     <t>Kamal123</t>
@@ -73,13 +73,13 @@
     <t>kamal123</t>
   </si>
   <si>
-    <t>girish</t>
-  </si>
-  <si>
-    <t>jdsfk</t>
-  </si>
-  <si>
-    <t>sf</t>
+    <t>Girish Kumar</t>
+  </si>
+  <si>
+    <t>7230084602</t>
+  </si>
+  <si>
+    <t>girishkumarbtp2112@gmail.com</t>
   </si>
   <si>
     <t>Girish123</t>
@@ -88,31 +88,19 @@
     <t>girish123</t>
   </si>
   <si>
-    <t>abhi</t>
-  </si>
-  <si>
-    <t>sfk</t>
-  </si>
-  <si>
-    <t>dfd</t>
+    <t>Abhishek Thakur</t>
+  </si>
+  <si>
+    <t>8529782229</t>
+  </si>
+  <si>
+    <t>abhishekthakur1061@gmail.com</t>
   </si>
   <si>
     <t>Abhi123</t>
   </si>
   <si>
     <t>abhi123</t>
-  </si>
-  <si>
-    <t>7023095311</t>
-  </si>
-  <si>
-    <t>kamal@gmail.com</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>kamal7643</t>
   </si>
 </sst>
 </file>
@@ -444,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,13 +528,13 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -581,78 +569,37 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,39 @@
   </si>
   <si>
     <t>abhi123</t>
+  </si>
+  <si>
+    <t>Sunil Choudhary</t>
+  </si>
+  <si>
+    <t>9983797016</t>
+  </si>
+  <si>
+    <t>sunilchoudhary3056@gmail.com</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>Sunil123</t>
+  </si>
+  <si>
+    <t>sunil123</t>
+  </si>
+  <si>
+    <t>Dheeraj Sharma</t>
+  </si>
+  <si>
+    <t>8529263216</t>
+  </si>
+  <si>
+    <t>dheerajsharma5869@gmail.com</t>
+  </si>
+  <si>
+    <t>Dheeraj123</t>
+  </si>
+  <si>
+    <t>dheeraj123</t>
   </si>
 </sst>
 </file>
@@ -432,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,6 +635,88 @@
         <v>28</v>
       </c>
     </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1200</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -693,22 +693,22 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1200</v>
+        <v>275</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -112,9 +112,6 @@
     <t>sunilchoudhary3056@gmail.com</t>
   </si>
   <si>
-    <t>******</t>
-  </si>
-  <si>
     <t>Sunil123</t>
   </si>
   <si>
@@ -134,6 +131,21 @@
   </si>
   <si>
     <t>dheeraj123</t>
+  </si>
+  <si>
+    <t>Narendra Meena</t>
+  </si>
+  <si>
+    <t>9521439894</t>
+  </si>
+  <si>
+    <t>narendraiitkgp258@gmail.com</t>
+  </si>
+  <si>
+    <t>Narendra123</t>
+  </si>
+  <si>
+    <t>narendra123</t>
   </si>
 </sst>
 </file>
@@ -465,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,31 +661,31 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>200</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -681,40 +693,81 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>275</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="M6" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>narendra123</t>
+  </si>
+  <si>
+    <t>Vijay Ola</t>
+  </si>
+  <si>
+    <t>7728810985</t>
+  </si>
+  <si>
+    <t>vijayola12345@gmail.com</t>
+  </si>
+  <si>
+    <t>Vijay123</t>
+  </si>
+  <si>
+    <t>vijay123</t>
+  </si>
+  <si>
+    <t>Santosh Swami</t>
+  </si>
+  <si>
+    <t>7073493453</t>
+  </si>
+  <si>
+    <t>santoshswami494@gmail.com</t>
+  </si>
+  <si>
+    <t>Santosh123</t>
+  </si>
+  <si>
+    <t>santosh123</t>
   </si>
 </sst>
 </file>
@@ -477,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,6 +800,88 @@
         <v>43</v>
       </c>
     </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -55,127 +55,82 @@
     <t>password</t>
   </si>
   <si>
-    <t>Kamal Swami</t>
+    <t>kamal</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>djk</t>
+  </si>
+  <si>
+    <t>dkfl</t>
+  </si>
+  <si>
+    <t>Kamal123</t>
+  </si>
+  <si>
+    <t>kamal123</t>
+  </si>
+  <si>
+    <t>girish</t>
+  </si>
+  <si>
+    <t>jdsfk</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>Girish123</t>
+  </si>
+  <si>
+    <t>girish123</t>
+  </si>
+  <si>
+    <t>abhi</t>
+  </si>
+  <si>
+    <t>sfk</t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
+  <si>
+    <t>Abhi123</t>
+  </si>
+  <si>
+    <t>abhi123</t>
   </si>
   <si>
     <t>7023095311</t>
   </si>
   <si>
-    <t>kswami848@gmail.com</t>
-  </si>
-  <si>
-    <t>*******</t>
-  </si>
-  <si>
-    <t>Kamal123</t>
-  </si>
-  <si>
-    <t>kamal123</t>
-  </si>
-  <si>
-    <t>Girish Kumar</t>
+    <t>kamal@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>kamal7643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girish </t>
   </si>
   <si>
     <t>7230084602</t>
   </si>
   <si>
-    <t>girishkumarbtp2112@gmail.com</t>
-  </si>
-  <si>
-    <t>Girish123</t>
-  </si>
-  <si>
-    <t>girish123</t>
-  </si>
-  <si>
-    <t>Abhishek Thakur</t>
-  </si>
-  <si>
-    <t>8529782229</t>
-  </si>
-  <si>
-    <t>abhishekthakur1061@gmail.com</t>
-  </si>
-  <si>
-    <t>Abhi123</t>
-  </si>
-  <si>
-    <t>abhi123</t>
-  </si>
-  <si>
-    <t>Sunil Choudhary</t>
-  </si>
-  <si>
-    <t>9983797016</t>
-  </si>
-  <si>
-    <t>sunilchoudhary3056@gmail.com</t>
-  </si>
-  <si>
-    <t>Sunil123</t>
-  </si>
-  <si>
-    <t>sunil123</t>
-  </si>
-  <si>
-    <t>Dheeraj Sharma</t>
-  </si>
-  <si>
-    <t>8529263216</t>
-  </si>
-  <si>
-    <t>dheerajsharma5869@gmail.com</t>
-  </si>
-  <si>
-    <t>Dheeraj123</t>
-  </si>
-  <si>
-    <t>dheeraj123</t>
-  </si>
-  <si>
-    <t>Narendra Meena</t>
-  </si>
-  <si>
-    <t>9521439894</t>
-  </si>
-  <si>
-    <t>narendraiitkgp258@gmail.com</t>
-  </si>
-  <si>
-    <t>Narendra123</t>
-  </si>
-  <si>
-    <t>narendra123</t>
-  </si>
-  <si>
-    <t>Vijay Ola</t>
-  </si>
-  <si>
-    <t>7728810985</t>
-  </si>
-  <si>
-    <t>vijayola12345@gmail.com</t>
-  </si>
-  <si>
-    <t>Vijay123</t>
-  </si>
-  <si>
-    <t>vijay123</t>
-  </si>
-  <si>
-    <t>Santosh Swami</t>
-  </si>
-  <si>
-    <t>7073493453</t>
-  </si>
-  <si>
-    <t>santoshswami494@gmail.com</t>
-  </si>
-  <si>
-    <t>Santosh123</t>
-  </si>
-  <si>
-    <t>santosh123</t>
+    <t>girihkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>12345drlc</t>
+  </si>
+  <si>
+    <t>Giri</t>
+  </si>
+  <si>
+    <t>Giri@123</t>
   </si>
 </sst>
 </file>
@@ -507,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,13 +558,13 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -644,31 +599,31 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
@@ -682,16 +637,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -715,7 +670,7 @@
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -723,16 +678,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -757,129 +712,6 @@
       </c>
       <c r="M6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/cache/customers.xlsx
+++ b/cache/customers.xlsx
@@ -571,22 +571,22 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
